--- a/latex2/ch1_gridshell/projects.xlsx
+++ b/latex2/ch1_gridshell/projects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="207">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -48,65 +45,16 @@
     <t>Savill</t>
   </si>
   <si>
-    <t>Chiddington</t>
-  </si>
-  <si>
-    <t>Navier</t>
-  </si>
-  <si>
-    <t>Solidays</t>
-  </si>
-  <si>
-    <t>Faraday</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>ENPC</t>
-  </si>
-  <si>
-    <t>Tolédo</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Layer</t>
-  </si>
-  <si>
-    <t>Bracing</t>
-  </si>
-  <si>
-    <t>Cladding</t>
-  </si>
-  <si>
     <t>Buro Happold</t>
   </si>
   <si>
     <t>Harris2003</t>
   </si>
   <si>
-    <t>Cite</t>
-  </si>
-  <si>
     <t>Harris2008</t>
-  </si>
-  <si>
-    <t>Green Oak Carpentry Company &amp; Buro Happold</t>
-  </si>
-  <si>
-    <t>20km</t>
-  </si>
-  <si>
-    <t>Larch 80x20mm
-20 lkm</t>
   </si>
   <si>
     <t>Wood - Larch</t>
@@ -651,8 +599,77 @@
     <t>pipes 19mmx1.2mm</t>
   </si>
   <si>
-    <t>6mm diagonal steel rods welded to the grid
-ferro-ciment shell</t>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>100m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mm diagonal steel rods welded to the grid
+</t>
+  </si>
+  <si>
+    <t>4 layers of chikkenwires filed with cement mortar</t>
+  </si>
+  <si>
+    <t>10x8m</t>
+  </si>
+  <si>
+    <t>80m2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>Surface(m2)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>\cite[p.~270]{IL10}</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Pavilion</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>\cite[p.~272]{IL10}</t>
   </si>
 </sst>
 </file>
@@ -697,10 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,6 +733,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -995,128 +1018,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="7" max="7" width="47.1640625" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="11" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="21.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>1962</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="7">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1975</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="1">
+        <v>1962</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="7">
+        <v>198</v>
+      </c>
+      <c r="K3" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1125,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,182 +1178,182 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>1962</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="S4" s="3">
         <v>2006</v>
@@ -1328,660 +1364,677 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>51</v>
+        <v>189</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>29</v>
+        <v>65</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="208" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="S20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="208" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="192" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
